--- a/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_072025.xlsx
+++ b/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_072025.xlsx
@@ -133,13 +133,13 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>281073.0</v>
+        <v>738057.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>93246.0</v>
+        <v>263413.0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>187827.0</v>
+        <v>474644.0</v>
       </c>
     </row>
     <row r="4">
@@ -193,13 +193,13 @@
         <v>7.0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>4617.0</v>
+        <v>5232.0</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>624.0</v>
+        <v>732.0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>3993.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="7">
@@ -233,13 +233,13 @@
         <v>7.0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>162.0</v>
+        <v>169.0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>114.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="9">
@@ -313,13 +313,13 @@
         <v>7.0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>49.0</v>
+        <v>59.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>44.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
@@ -353,13 +353,13 @@
         <v>7.0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>118.0</v>
+        <v>124.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>101.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="15">
@@ -373,13 +373,13 @@
         <v>7.0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>129.0</v>
+        <v>137.0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="16">
@@ -393,13 +393,13 @@
         <v>7.0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>166.0</v>
+        <v>178.0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>119.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="17">
@@ -413,13 +413,13 @@
         <v>7.0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>27253.0</v>
+        <v>200426.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>8992.0</v>
+        <v>83732.0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>18261.0</v>
+        <v>116694.0</v>
       </c>
     </row>
     <row r="18">
@@ -433,13 +433,13 @@
         <v>7.0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>12603.0</v>
+        <v>65343.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4004.0</v>
+        <v>22505.0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>8599.0</v>
+        <v>42838.0</v>
       </c>
     </row>
     <row r="19">
@@ -453,13 +453,13 @@
         <v>7.0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>20345.0</v>
+        <v>82820.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>5687.0</v>
+        <v>26440.0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>14658.0</v>
+        <v>56380.0</v>
       </c>
     </row>
     <row r="20">
@@ -473,13 +473,13 @@
         <v>7.0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1987.0</v>
+        <v>26460.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1007.0</v>
+        <v>14113.0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>980.0</v>
+        <v>12347.0</v>
       </c>
     </row>
     <row r="21">
@@ -493,13 +493,13 @@
         <v>7.0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>3690.0</v>
+        <v>28952.0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1341.0</v>
+        <v>12022.0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>2349.0</v>
+        <v>16930.0</v>
       </c>
     </row>
     <row r="22">
@@ -513,13 +513,13 @@
         <v>7.0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>2875.0</v>
+        <v>13110.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>597.0</v>
+        <v>2798.0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>2278.0</v>
+        <v>10312.0</v>
       </c>
     </row>
     <row r="23">
@@ -533,13 +533,13 @@
         <v>7.0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>8032.0</v>
+        <v>41815.0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1488.0</v>
+        <v>7352.0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>6544.0</v>
+        <v>34463.0</v>
       </c>
     </row>
     <row r="24">
@@ -553,13 +553,13 @@
         <v>7.0</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>3492.0</v>
+        <v>21973.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>792.0</v>
+        <v>6056.0</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>2700.0</v>
+        <v>15917.0</v>
       </c>
     </row>
     <row r="25">
@@ -573,13 +573,13 @@
         <v>7.0</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1861.0</v>
+        <v>11242.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>440.0</v>
+        <v>3250.0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1421.0</v>
+        <v>7992.0</v>
       </c>
     </row>
     <row r="26">
@@ -593,13 +593,13 @@
         <v>7.0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>2095.0</v>
+        <v>11025.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>610.0</v>
+        <v>3193.0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>1485.0</v>
+        <v>7832.0</v>
       </c>
     </row>
     <row r="27">
@@ -613,13 +613,13 @@
         <v>7.0</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>535.0</v>
+        <v>4655.0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>94.0</v>
+        <v>1096.0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>441.0</v>
+        <v>3559.0</v>
       </c>
     </row>
     <row r="28">
@@ -633,13 +633,13 @@
         <v>7.0</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>324.0</v>
+        <v>3964.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>31.0</v>
+        <v>527.0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>293.0</v>
+        <v>3437.0</v>
       </c>
     </row>
     <row r="29">
@@ -673,13 +673,13 @@
         <v>7.0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>6417.0</v>
+        <v>6489.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3416.0</v>
+        <v>3442.0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>3001.0</v>
+        <v>3047.0</v>
       </c>
     </row>
     <row r="31">
@@ -693,13 +693,13 @@
         <v>7.0</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>6508.0</v>
+        <v>7910.0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>846.0</v>
+        <v>1056.0</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>5662.0</v>
+        <v>6854.0</v>
       </c>
     </row>
     <row r="32">
@@ -713,13 +713,13 @@
         <v>7.0</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>191.0</v>
+        <v>255.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>110.0</v>
+        <v>160.0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>81.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="33">
@@ -773,13 +773,13 @@
         <v>7.0</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>970.0</v>
+        <v>1378.0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>328.0</v>
+        <v>463.0</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>642.0</v>
+        <v>915.0</v>
       </c>
     </row>
     <row r="36">
@@ -833,13 +833,13 @@
         <v>7.0</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>26058.0</v>
+        <v>37539.0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>12706.0</v>
+        <v>18804.0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>13352.0</v>
+        <v>18735.0</v>
       </c>
     </row>
     <row r="39">
@@ -853,13 +853,13 @@
         <v>7.0</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>23383.0</v>
+        <v>25151.0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>10647.0</v>
+        <v>11160.0</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>12736.0</v>
+        <v>13991.0</v>
       </c>
     </row>
     <row r="40">
@@ -873,13 +873,13 @@
         <v>7.0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>8434.0</v>
+        <v>8759.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2745.0</v>
+        <v>2845.0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>5689.0</v>
+        <v>5914.0</v>
       </c>
     </row>
     <row r="41">
@@ -893,13 +893,13 @@
         <v>7.0</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>17855.0</v>
+        <v>19073.0</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>4415.0</v>
+        <v>4652.0</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>13440.0</v>
+        <v>14421.0</v>
       </c>
     </row>
     <row r="42">
@@ -913,13 +913,13 @@
         <v>7.0</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>13135.0</v>
+        <v>15049.0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>3454.0</v>
+        <v>3901.0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>9681.0</v>
+        <v>11148.0</v>
       </c>
     </row>
     <row r="43">
@@ -933,13 +933,13 @@
         <v>7.0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>11309.0</v>
+        <v>11709.0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2842.0</v>
+        <v>2898.0</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>8467.0</v>
+        <v>8811.0</v>
       </c>
     </row>
     <row r="44">
@@ -953,13 +953,13 @@
         <v>7.0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>3614.0</v>
+        <v>6211.0</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>908.0</v>
+        <v>1621.0</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>2706.0</v>
+        <v>4590.0</v>
       </c>
     </row>
     <row r="45">
@@ -973,13 +973,13 @@
         <v>7.0</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>127.0</v>
+        <v>253.0</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>25.0</v>
+        <v>62.0</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>102.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="46">
@@ -1033,10 +1033,10 @@
         <v>7.0</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>19974.0</v>
+        <v>19977.0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>5087.0</v>
+        <v>5090.0</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>14887.0</v>
@@ -1053,13 +1053,13 @@
         <v>7.0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>46.0</v>
+        <v>3998.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>14.0</v>
+        <v>1884.0</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>32.0</v>
+        <v>2114.0</v>
       </c>
     </row>
     <row r="50">
@@ -1073,13 +1073,13 @@
         <v>7.0</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>431.0</v>
+        <v>3196.0</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>131.0</v>
+        <v>1334.0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>300.0</v>
+        <v>1862.0</v>
       </c>
     </row>
     <row r="51">
@@ -1093,13 +1093,13 @@
         <v>7.0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>78.0</v>
+        <v>484.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>10.0</v>
+        <v>92.0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>68.0</v>
+        <v>392.0</v>
       </c>
     </row>
     <row r="52">
@@ -1113,13 +1113,13 @@
         <v>7.0</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>231.0</v>
+        <v>963.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>68.0</v>
+        <v>336.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>163.0</v>
+        <v>627.0</v>
       </c>
     </row>
   </sheetData>
